--- a/selecciones_totalizadas.xlsx
+++ b/selecciones_totalizadas.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B217"/>
+  <dimension ref="A1:B425"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2529,6 +2529,2086 @@
         </is>
       </c>
     </row>
+    <row r="218">
+      <c r="A218">
+        <v>1990</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219">
+        <v>1990</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>Austria</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220">
+        <v>1990</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>Bélgica</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221">
+        <v>1990</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222">
+        <v>1990</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>Camerún</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223">
+        <v>1990</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224">
+        <v>1990</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225">
+        <v>1990</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>Egipto</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226">
+        <v>1990</v>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>Inglaterra</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227">
+        <v>1990</v>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228">
+        <v>1990</v>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>Alemania Federal</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229">
+        <v>1990</v>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>Irlanda</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230">
+        <v>1990</v>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>Italia</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231">
+        <v>1990</v>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>Corea del Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232">
+        <v>1990</v>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>Países Bajos</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233">
+        <v>1990</v>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>Rumania</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234">
+        <v>1990</v>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>Escocia</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235">
+        <v>1990</v>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>Suecia</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236">
+        <v>1990</v>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>Checoslovaquia</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237">
+        <v>1990</v>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>Emiratos Árabes</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238">
+        <v>1990</v>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>Unión Soviética</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239">
+        <v>1990</v>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>Uruguay</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240">
+        <v>1990</v>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>Estados Unidos</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241">
+        <v>1990</v>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>Yugoslavia</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242">
+        <v>1994</v>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243">
+        <v>1994</v>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>Bélgica</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244">
+        <v>1994</v>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>Bolivia</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245">
+        <v>1994</v>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246">
+        <v>1994</v>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>Bulgaria</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247">
+        <v>1994</v>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>Camerún</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248">
+        <v>1994</v>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249">
+        <v>1994</v>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250">
+        <v>1994</v>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>Alemania Federal</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251">
+        <v>1994</v>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>Grecia</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252">
+        <v>1994</v>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>Irlanda</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253">
+        <v>1994</v>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>Italia</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254">
+        <v>1994</v>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>Corea del Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255">
+        <v>1994</v>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>Arabia Saudita</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256">
+        <v>1994</v>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>Marruecos</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257">
+        <v>1994</v>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>México</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258">
+        <v>1994</v>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>Países Bajos</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259">
+        <v>1994</v>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>Nigeria</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260">
+        <v>1994</v>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>Noruega</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261">
+        <v>1994</v>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>Rumania</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262">
+        <v>1994</v>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>Rusia</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263">
+        <v>1994</v>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>Suiza</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264">
+        <v>1994</v>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>Suecia</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265">
+        <v>1994</v>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>Estados Unidos</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266">
+        <v>1998</v>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267">
+        <v>1998</v>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>Austria</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268">
+        <v>1998</v>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>Bélgica</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269">
+        <v>1998</v>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270">
+        <v>1998</v>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>Bulgaria</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271">
+        <v>1998</v>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>Chile</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272">
+        <v>1998</v>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>Camerún</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273">
+        <v>1998</v>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274">
+        <v>1998</v>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>Croacia</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275">
+        <v>1998</v>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>Dinamarca</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276">
+        <v>1998</v>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>Inglaterra</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277">
+        <v>1998</v>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278">
+        <v>1998</v>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>Francia</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279">
+        <v>1998</v>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>Alemania Federal</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280">
+        <v>1998</v>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>Irán</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281">
+        <v>1998</v>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>Italia</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282">
+        <v>1998</v>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>Jamaica</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283">
+        <v>1998</v>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>Japón</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284">
+        <v>1998</v>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>Corea del Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285">
+        <v>1998</v>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>Arabia Saudita</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286">
+        <v>1998</v>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>Marruecos</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287">
+        <v>1998</v>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>México</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288">
+        <v>1998</v>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>Países Bajos</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289">
+        <v>1998</v>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>Nigeria</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290">
+        <v>1998</v>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>Noruega</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291">
+        <v>1998</v>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>Paraguay</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292">
+        <v>1998</v>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>Rumania</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293">
+        <v>1998</v>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>Sudáfrica</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294">
+        <v>1998</v>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>Escocia</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295">
+        <v>1998</v>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>Túnez</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296">
+        <v>1998</v>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>Estados Unidos</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297">
+        <v>1998</v>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>Yugoslavia</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298">
+        <v>2002</v>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299">
+        <v>2002</v>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>Bélgica</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300">
+        <v>2002</v>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301">
+        <v>2002</v>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302">
+        <v>2002</v>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>Camerún</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303">
+        <v>2002</v>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304">
+        <v>2002</v>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>Croacia</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305">
+        <v>2002</v>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>Dinamarca</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306">
+        <v>2002</v>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307">
+        <v>2002</v>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>Inglaterra</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308">
+        <v>2002</v>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309">
+        <v>2002</v>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>Francia</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310">
+        <v>2002</v>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>Alemania Federal</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311">
+        <v>2002</v>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>Irlanda</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312">
+        <v>2002</v>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>Italia</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313">
+        <v>2002</v>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>Japón</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314">
+        <v>2002</v>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>Corea del Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315">
+        <v>2002</v>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>Arabia Saudita</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316">
+        <v>2002</v>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>México</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317">
+        <v>2002</v>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>Nigeria</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318">
+        <v>2002</v>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>Paraguay</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319">
+        <v>2002</v>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>Polonia</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320">
+        <v>2002</v>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321">
+        <v>2002</v>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>Sudáfrica</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322">
+        <v>2002</v>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>Rusia</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323">
+        <v>2002</v>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>Senegal</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324">
+        <v>2002</v>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>Eslovenia</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325">
+        <v>2002</v>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>Suecia</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326">
+        <v>2002</v>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>Túnez</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327">
+        <v>2002</v>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>Turquía</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328">
+        <v>2002</v>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>Uruguay</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329">
+        <v>2002</v>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>Estados Unidos</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330">
+        <v>2006</v>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331">
+        <v>2006</v>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>Angola</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332">
+        <v>2006</v>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333">
+        <v>2006</v>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334">
+        <v>2006</v>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335">
+        <v>2006</v>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>Costa de Marfil</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336">
+        <v>2006</v>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>Croacia</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337">
+        <v>2006</v>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>República Checa</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338">
+        <v>2006</v>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339">
+        <v>2006</v>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>Inglaterra</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340">
+        <v>2006</v>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341">
+        <v>2006</v>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>Francia</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342">
+        <v>2006</v>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>Alemania Federal</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343">
+        <v>2006</v>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>Irán</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344">
+        <v>2006</v>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>Ghana</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345">
+        <v>2006</v>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>Italia</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346">
+        <v>2006</v>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>Japón</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347">
+        <v>2006</v>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>Corea del Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348">
+        <v>2006</v>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>Arabia Saudita</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349">
+        <v>2006</v>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>México</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350">
+        <v>2006</v>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>Países Bajos</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351">
+        <v>2006</v>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>Polonia</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352">
+        <v>2006</v>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>Paraguay</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353">
+        <v>2006</v>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>Serbia</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354">
+        <v>2006</v>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355">
+        <v>2006</v>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>Suecia</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356">
+        <v>2006</v>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>Suiza</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357">
+        <v>2006</v>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>Trinidad y Tobago</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358">
+        <v>2006</v>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>Togo</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359">
+        <v>2006</v>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>Túnez</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360">
+        <v>2006</v>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>Ucrania</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361">
+        <v>2006</v>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>Estados Unidos</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362">
+        <v>2010</v>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363">
+        <v>2010</v>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>Argelia</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364">
+        <v>2010</v>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365">
+        <v>2010</v>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366">
+        <v>2010</v>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>Chile</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367">
+        <v>2010</v>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>Costa de Marfil</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368">
+        <v>2010</v>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>Camerún</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369">
+        <v>2010</v>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>Dinamarca</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370">
+        <v>2010</v>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>Inglaterra</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371">
+        <v>2010</v>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372">
+        <v>2010</v>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>Francia</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373">
+        <v>2010</v>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>Alemania Federal</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374">
+        <v>2010</v>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>Grecia</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375">
+        <v>2010</v>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>Ghana</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376">
+        <v>2010</v>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>Italia</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377">
+        <v>2010</v>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>Honduras</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378">
+        <v>2010</v>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>Japón</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379">
+        <v>2010</v>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>Corea del Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380">
+        <v>2010</v>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>México</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381">
+        <v>2010</v>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>Países Bajos</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382">
+        <v>2010</v>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>Nueva Zelanda</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383">
+        <v>2010</v>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>Nigeria</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384">
+        <v>2010</v>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>Paraguay</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385">
+        <v>2010</v>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386">
+        <v>2010</v>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>Sudáfrica</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387">
+        <v>2010</v>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>Corea del Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388">
+        <v>2010</v>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>Serbia</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389">
+        <v>2010</v>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>Suiza</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390">
+        <v>2010</v>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>Eslovenia</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391">
+        <v>2010</v>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>Eslovaquia</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392">
+        <v>2010</v>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>Uruguay</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393">
+        <v>2010</v>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>Estados Unidos</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394">
+        <v>2014</v>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395">
+        <v>2014</v>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>Argelia</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396">
+        <v>2014</v>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397">
+        <v>2014</v>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>Bélgica</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398">
+        <v>2014</v>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>Bosnia y Herzegovina</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399">
+        <v>2014</v>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400">
+        <v>2014</v>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>Chile</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401">
+        <v>2014</v>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>Costa de Marfil</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402">
+        <v>2014</v>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>Camerún</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403">
+        <v>2014</v>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404">
+        <v>2014</v>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>Croacia</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405">
+        <v>2014</v>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406">
+        <v>2014</v>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>Inglaterra</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407">
+        <v>2014</v>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408">
+        <v>2014</v>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409">
+        <v>2014</v>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>Francia</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410">
+        <v>2014</v>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>Alemania Federal</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411">
+        <v>2014</v>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>Ghana</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412">
+        <v>2014</v>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>Grecia</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413">
+        <v>2014</v>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>Honduras</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414">
+        <v>2014</v>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>Italia</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415">
+        <v>2014</v>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>Irán</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416">
+        <v>2014</v>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>Japón</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417">
+        <v>2014</v>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>Corea del Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418">
+        <v>2014</v>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>México</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419">
+        <v>2014</v>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>Países Bajos</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420">
+        <v>2014</v>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421">
+        <v>2014</v>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>Nigeria</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422">
+        <v>2014</v>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>Suiza</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423">
+        <v>2014</v>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>Rusia</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424">
+        <v>2014</v>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>Uruguay</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425">
+        <v>2014</v>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>Estados Unidos</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
